--- a/Day 2/istatistic.xlsx
+++ b/Day 2/istatistic.xlsx
@@ -676,64 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.029664133467124</v>
+        <v>5.029664133467113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3959814095528752</v>
+        <v>0.395981409552857</v>
       </c>
       <c r="D4" t="n">
-        <v>3.279222654749293</v>
+        <v>3.279222654749451</v>
       </c>
       <c r="E4" t="n">
-        <v>2.614777969569853</v>
+        <v>2.614777969569862</v>
       </c>
       <c r="F4" t="n">
-        <v>45.6393660873356</v>
+        <v>45.63936608733558</v>
       </c>
       <c r="G4" t="n">
-        <v>13.80103485844324</v>
+        <v>13.80103485844281</v>
       </c>
       <c r="H4" t="n">
-        <v>4.070448007988173</v>
+        <v>4.070448007988288</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9740868132802875</v>
+        <v>0.9740868132802869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4323300689129114</v>
+        <v>0.4323300689129314</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4369406000714475</v>
+        <v>0.4369406000714162</v>
       </c>
       <c r="L4" t="n">
-        <v>1.907525689596108</v>
+        <v>1.907525689596121</v>
       </c>
       <c r="M4" t="n">
-        <v>2.929682883179097</v>
+        <v>2.929682883179245</v>
       </c>
       <c r="N4" t="n">
-        <v>11.59674935088987</v>
+        <v>11.59674935088984</v>
       </c>
       <c r="O4" t="n">
-        <v>41.82633953491928</v>
+        <v>41.82633953491955</v>
       </c>
       <c r="P4" t="n">
-        <v>10.84089629454721</v>
+        <v>10.84089629454697</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.476746493844896</v>
+        <v>2.476746493844859</v>
       </c>
       <c r="R4" t="n">
-        <v>12.26222000945581</v>
+        <v>12.26222000945594</v>
       </c>
       <c r="S4" t="n">
-        <v>79.41751424005973</v>
+        <v>79.41751424005906</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5240469715353</v>
+        <v>5.524046971535143</v>
       </c>
       <c r="U4" t="n">
-        <v>1.813869603699753</v>
+        <v>1.813869603699599</v>
       </c>
     </row>
     <row r="5">
